--- a/صيدليات دكتور مصطفي طلعت_2026-01-13_21-16.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-13_21-16.xlsx
@@ -323,7 +323,13 @@
     <t>ROYAL REGIME HERBAL TEA 2 GM*50 TEA BAGS</t>
   </si>
   <si>
+    <t>SPASMOPYRALGIN 30 TAB</t>
+  </si>
+  <si>
     <t>STOPADOL 500MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>STREPTOQUIN 20 TABLETS</t>
   </si>
   <si>
     <t>TELFAST 180MG 20 F.C. TABS</t>
@@ -2878,17 +2884,17 @@
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
       <c t="s" r="H76" s="8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I76" s="8"/>
       <c r="J76" s="8"/>
       <c r="K76" s="8"/>
       <c r="L76" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="M76" s="9"/>
       <c t="s" r="N76" s="7">
-        <v>38</v>
+        <v>8</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -2904,13 +2910,13 @@
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
       <c t="s" r="H77" s="8">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="I77" s="8"/>
       <c r="J77" s="8"/>
       <c r="K77" s="8"/>
       <c r="L77" s="9">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="M77" s="9"/>
       <c t="s" r="N77" s="7">
@@ -2930,17 +2936,17 @@
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
       <c t="s" r="H78" s="8">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="I78" s="8"/>
       <c r="J78" s="8"/>
       <c r="K78" s="8"/>
       <c r="L78" s="9">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="M78" s="9"/>
       <c t="s" r="N78" s="7">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="79" ht="24.75" customHeight="1">
@@ -2956,17 +2962,17 @@
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
       <c t="s" r="H79" s="8">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I79" s="8"/>
       <c r="J79" s="8"/>
       <c r="K79" s="8"/>
       <c r="L79" s="9">
-        <v>30.09</v>
+        <v>80</v>
       </c>
       <c r="M79" s="9"/>
       <c t="s" r="N79" s="7">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="80" ht="25.5" customHeight="1">
@@ -2982,13 +2988,13 @@
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
       <c t="s" r="H80" s="8">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I80" s="8"/>
       <c r="J80" s="8"/>
       <c r="K80" s="8"/>
       <c r="L80" s="9">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="M80" s="9"/>
       <c t="s" r="N80" s="7">
@@ -3014,7 +3020,7 @@
       <c r="J81" s="8"/>
       <c r="K81" s="8"/>
       <c r="L81" s="9">
-        <v>23</v>
+        <v>30.09</v>
       </c>
       <c r="M81" s="9"/>
       <c t="s" r="N81" s="7">
@@ -3040,11 +3046,11 @@
       <c r="J82" s="8"/>
       <c r="K82" s="8"/>
       <c r="L82" s="9">
-        <v>48.719999999999999</v>
+        <v>92</v>
       </c>
       <c r="M82" s="9"/>
       <c t="s" r="N82" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" ht="25.5" customHeight="1">
@@ -3060,13 +3066,13 @@
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
       <c t="s" r="H83" s="8">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="I83" s="8"/>
       <c r="J83" s="8"/>
       <c r="K83" s="8"/>
       <c r="L83" s="9">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="M83" s="9"/>
       <c t="s" r="N83" s="7">
@@ -3086,17 +3092,17 @@
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
       <c t="s" r="H84" s="8">
-        <v>95</v>
+        <v>12</v>
       </c>
       <c r="I84" s="8"/>
       <c r="J84" s="8"/>
       <c r="K84" s="8"/>
       <c r="L84" s="9">
-        <v>26</v>
+        <v>48.719999999999999</v>
       </c>
       <c r="M84" s="9"/>
       <c t="s" r="N84" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="85" ht="25.5" customHeight="1">
@@ -3112,17 +3118,17 @@
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
       <c t="s" r="H85" s="8">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="I85" s="8"/>
       <c r="J85" s="8"/>
       <c r="K85" s="8"/>
       <c r="L85" s="9">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="M85" s="9"/>
       <c t="s" r="N85" s="7">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" ht="24.75" customHeight="1">
@@ -3138,13 +3144,13 @@
       <c r="F86" s="7"/>
       <c r="G86" s="7"/>
       <c t="s" r="H86" s="8">
-        <v>8</v>
+        <v>95</v>
       </c>
       <c r="I86" s="8"/>
       <c r="J86" s="8"/>
       <c r="K86" s="8"/>
       <c r="L86" s="9">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="M86" s="9"/>
       <c t="s" r="N86" s="7">
@@ -3164,17 +3170,17 @@
       <c r="F87" s="7"/>
       <c r="G87" s="7"/>
       <c t="s" r="H87" s="8">
-        <v>116</v>
+        <v>9</v>
       </c>
       <c r="I87" s="8"/>
       <c r="J87" s="8"/>
       <c r="K87" s="8"/>
       <c r="L87" s="9">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="M87" s="9"/>
       <c t="s" r="N87" s="7">
-        <v>8</v>
+        <v>38</v>
       </c>
     </row>
     <row r="88" ht="25.5" customHeight="1">
@@ -3182,7 +3188,7 @@
         <v>85</v>
       </c>
       <c t="s" r="B88" s="7">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C88" s="7"/>
       <c r="D88" s="7"/>
@@ -3190,17 +3196,17 @@
       <c r="F88" s="7"/>
       <c r="G88" s="7"/>
       <c t="s" r="H88" s="8">
-        <v>118</v>
+        <v>8</v>
       </c>
       <c r="I88" s="8"/>
       <c r="J88" s="8"/>
       <c r="K88" s="8"/>
       <c r="L88" s="9">
-        <v>22.5</v>
+        <v>68</v>
       </c>
       <c r="M88" s="9"/>
       <c t="s" r="N88" s="7">
-        <v>71</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89" ht="24.75" customHeight="1">
@@ -3208,7 +3214,7 @@
         <v>86</v>
       </c>
       <c t="s" r="B89" s="7">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C89" s="7"/>
       <c r="D89" s="7"/>
@@ -3216,17 +3222,17 @@
       <c r="F89" s="7"/>
       <c r="G89" s="7"/>
       <c t="s" r="H89" s="8">
-        <v>95</v>
+        <v>118</v>
       </c>
       <c r="I89" s="8"/>
       <c r="J89" s="8"/>
       <c r="K89" s="8"/>
       <c r="L89" s="9">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="M89" s="9"/>
       <c t="s" r="N89" s="7">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="90" ht="25.5" customHeight="1">
@@ -3234,7 +3240,7 @@
         <v>87</v>
       </c>
       <c t="s" r="B90" s="7">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C90" s="7"/>
       <c r="D90" s="7"/>
@@ -3242,17 +3248,17 @@
       <c r="F90" s="7"/>
       <c r="G90" s="7"/>
       <c t="s" r="H90" s="8">
-        <v>8</v>
+        <v>120</v>
       </c>
       <c r="I90" s="8"/>
       <c r="J90" s="8"/>
       <c r="K90" s="8"/>
       <c r="L90" s="9">
-        <v>50</v>
+        <v>22.5</v>
       </c>
       <c r="M90" s="9"/>
       <c t="s" r="N90" s="7">
-        <v>12</v>
+        <v>71</v>
       </c>
     </row>
     <row r="91" ht="24.75" customHeight="1">
@@ -3268,17 +3274,17 @@
       <c r="F91" s="7"/>
       <c r="G91" s="7"/>
       <c t="s" r="H91" s="8">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="I91" s="8"/>
       <c r="J91" s="8"/>
       <c r="K91" s="8"/>
       <c r="L91" s="9">
-        <v>192</v>
+        <v>63</v>
       </c>
       <c r="M91" s="9"/>
       <c t="s" r="N91" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -3294,13 +3300,13 @@
       <c r="F92" s="7"/>
       <c r="G92" s="7"/>
       <c t="s" r="H92" s="8">
-        <v>123</v>
+        <v>8</v>
       </c>
       <c r="I92" s="8"/>
       <c r="J92" s="8"/>
       <c r="K92" s="8"/>
       <c r="L92" s="9">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="M92" s="9"/>
       <c t="s" r="N92" s="7">
@@ -3312,7 +3318,7 @@
         <v>90</v>
       </c>
       <c t="s" r="B93" s="7">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C93" s="7"/>
       <c r="D93" s="7"/>
@@ -3326,11 +3332,11 @@
       <c r="J93" s="8"/>
       <c r="K93" s="8"/>
       <c r="L93" s="9">
-        <v>30</v>
+        <v>192</v>
       </c>
       <c r="M93" s="9"/>
       <c t="s" r="N93" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="94" ht="24.75" customHeight="1">
@@ -3338,7 +3344,7 @@
         <v>91</v>
       </c>
       <c t="s" r="B94" s="7">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C94" s="7"/>
       <c r="D94" s="7"/>
@@ -3346,17 +3352,17 @@
       <c r="F94" s="7"/>
       <c r="G94" s="7"/>
       <c t="s" r="H94" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I94" s="8"/>
       <c r="J94" s="8"/>
       <c r="K94" s="8"/>
       <c r="L94" s="9">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="M94" s="9"/>
       <c t="s" r="N94" s="7">
-        <v>127</v>
+        <v>12</v>
       </c>
     </row>
     <row r="95" ht="25.5" customHeight="1">
@@ -3364,7 +3370,7 @@
         <v>92</v>
       </c>
       <c t="s" r="B95" s="7">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C95" s="7"/>
       <c r="D95" s="7"/>
@@ -3372,13 +3378,13 @@
       <c r="F95" s="7"/>
       <c r="G95" s="7"/>
       <c t="s" r="H95" s="8">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="I95" s="8"/>
       <c r="J95" s="8"/>
       <c r="K95" s="8"/>
       <c r="L95" s="9">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="M95" s="9"/>
       <c t="s" r="N95" s="7">
@@ -3390,7 +3396,7 @@
         <v>93</v>
       </c>
       <c t="s" r="B96" s="7">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C96" s="7"/>
       <c r="D96" s="7"/>
@@ -3398,17 +3404,17 @@
       <c r="F96" s="7"/>
       <c r="G96" s="7"/>
       <c t="s" r="H96" s="8">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="I96" s="8"/>
       <c r="J96" s="8"/>
       <c r="K96" s="8"/>
       <c r="L96" s="9">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="M96" s="9"/>
       <c t="s" r="N96" s="7">
-        <v>12</v>
+        <v>129</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -3430,7 +3436,7 @@
       <c r="J97" s="8"/>
       <c r="K97" s="8"/>
       <c r="L97" s="9">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="M97" s="9"/>
       <c t="s" r="N97" s="7">
@@ -3450,13 +3456,13 @@
       <c r="F98" s="7"/>
       <c r="G98" s="7"/>
       <c t="s" r="H98" s="8">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="I98" s="8"/>
       <c r="J98" s="8"/>
       <c r="K98" s="8"/>
       <c r="L98" s="9">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="M98" s="9"/>
       <c t="s" r="N98" s="7">
@@ -3476,13 +3482,13 @@
       <c r="F99" s="7"/>
       <c r="G99" s="7"/>
       <c t="s" r="H99" s="8">
-        <v>133</v>
+        <v>9</v>
       </c>
       <c r="I99" s="8"/>
       <c r="J99" s="8"/>
       <c r="K99" s="8"/>
       <c r="L99" s="9">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="M99" s="9"/>
       <c t="s" r="N99" s="7">
@@ -3494,7 +3500,7 @@
         <v>97</v>
       </c>
       <c t="s" r="B100" s="7">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C100" s="7"/>
       <c r="D100" s="7"/>
@@ -3502,51 +3508,103 @@
       <c r="F100" s="7"/>
       <c r="G100" s="7"/>
       <c t="s" r="H100" s="8">
-        <v>9</v>
+        <v>128</v>
       </c>
       <c r="I100" s="8"/>
       <c r="J100" s="8"/>
       <c r="K100" s="8"/>
       <c r="L100" s="9">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="M100" s="9"/>
       <c t="s" r="N100" s="7">
         <v>12</v>
       </c>
     </row>
-    <row r="101" ht="25.5" customHeight="1">
-      <c r="K101" s="10">
-        <v>5729.71</v>
-      </c>
-      <c r="L101" s="10"/>
-      <c r="M101" s="10"/>
-      <c r="N101" s="10"/>
-    </row>
-    <row r="102" ht="16.5" customHeight="1">
-      <c t="s" r="A102" s="11">
+    <row r="101" ht="24.75" customHeight="1">
+      <c r="A101" s="6">
+        <v>98</v>
+      </c>
+      <c t="s" r="B101" s="7">
+        <v>134</v>
+      </c>
+      <c r="C101" s="7"/>
+      <c r="D101" s="7"/>
+      <c r="E101" s="7"/>
+      <c r="F101" s="7"/>
+      <c r="G101" s="7"/>
+      <c t="s" r="H101" s="8">
         <v>135</v>
       </c>
-      <c r="B102" s="11"/>
-      <c r="C102" s="11"/>
-      <c r="D102" s="11"/>
-      <c r="E102" s="11"/>
-      <c t="s" r="F102" s="12">
+      <c r="I101" s="8"/>
+      <c r="J101" s="8"/>
+      <c r="K101" s="8"/>
+      <c r="L101" s="9">
+        <v>24</v>
+      </c>
+      <c r="M101" s="9"/>
+      <c t="s" r="N101" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="102" ht="25.5" customHeight="1">
+      <c r="A102" s="6">
+        <v>99</v>
+      </c>
+      <c t="s" r="B102" s="7">
         <v>136</v>
       </c>
-      <c r="G102" s="12"/>
-      <c r="H102" s="13"/>
-      <c t="s" r="I102" s="14">
+      <c r="C102" s="7"/>
+      <c r="D102" s="7"/>
+      <c r="E102" s="7"/>
+      <c r="F102" s="7"/>
+      <c r="G102" s="7"/>
+      <c t="s" r="H102" s="8">
+        <v>9</v>
+      </c>
+      <c r="I102" s="8"/>
+      <c r="J102" s="8"/>
+      <c r="K102" s="8"/>
+      <c r="L102" s="9">
+        <v>20</v>
+      </c>
+      <c r="M102" s="9"/>
+      <c t="s" r="N102" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="103" ht="25.5" customHeight="1">
+      <c r="K103" s="10">
+        <v>5773.71</v>
+      </c>
+      <c r="L103" s="10"/>
+      <c r="M103" s="10"/>
+      <c r="N103" s="10"/>
+    </row>
+    <row r="104" ht="17.25" customHeight="1">
+      <c t="s" r="A104" s="11">
         <v>137</v>
       </c>
-      <c r="J102" s="14"/>
-      <c r="K102" s="14"/>
-      <c r="L102" s="14"/>
-      <c r="M102" s="14"/>
-      <c r="N102" s="14"/>
+      <c r="B104" s="11"/>
+      <c r="C104" s="11"/>
+      <c r="D104" s="11"/>
+      <c r="E104" s="11"/>
+      <c t="s" r="F104" s="12">
+        <v>138</v>
+      </c>
+      <c r="G104" s="12"/>
+      <c r="H104" s="13"/>
+      <c t="s" r="I104" s="14">
+        <v>139</v>
+      </c>
+      <c r="J104" s="14"/>
+      <c r="K104" s="14"/>
+      <c r="L104" s="14"/>
+      <c r="M104" s="14"/>
+      <c r="N104" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="302">
+  <mergeCells count="308">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -3845,10 +3903,16 @@
     <mergeCell ref="B100:G100"/>
     <mergeCell ref="H100:K100"/>
     <mergeCell ref="L100:M100"/>
-    <mergeCell ref="K101:N101"/>
-    <mergeCell ref="A102:E102"/>
-    <mergeCell ref="F102:G102"/>
-    <mergeCell ref="I102:N102"/>
+    <mergeCell ref="B101:G101"/>
+    <mergeCell ref="H101:K101"/>
+    <mergeCell ref="L101:M101"/>
+    <mergeCell ref="B102:G102"/>
+    <mergeCell ref="H102:K102"/>
+    <mergeCell ref="L102:M102"/>
+    <mergeCell ref="K103:N103"/>
+    <mergeCell ref="A104:E104"/>
+    <mergeCell ref="F104:G104"/>
+    <mergeCell ref="I104:N104"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
